--- a/001/datacalc(AutoRecovered).xlsx
+++ b/001/datacalc(AutoRecovered).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\python\my_files\Python\saude\001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Documents\GitHub\saude\001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B6AA03-D44D-45C1-9607-DD6E4F94A641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9056A0-5475-4E02-9E88-D71690843948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datacalc" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -45,13 +44,7 @@
     <t>semana</t>
   </si>
   <si>
-    <t>medtemp</t>
-  </si>
-  <si>
     <t>ano</t>
-  </si>
-  <si>
-    <t>temp2023</t>
   </si>
   <si>
     <t>Soma de inc_not</t>
@@ -72,12 +65,6 @@
     <t>(Multiple Items)</t>
   </si>
   <si>
-    <t>Precipitação média</t>
-  </si>
-  <si>
-    <t>Precipitação 2023</t>
-  </si>
-  <si>
     <t>Incidência média</t>
   </si>
   <si>
@@ -88,6 +75,18 @@
   </si>
   <si>
     <t>Incidência 2023</t>
+  </si>
+  <si>
+    <t>Média histórica de Temperatura máx.</t>
+  </si>
+  <si>
+    <t>Média de Temperatura máx. 2023</t>
+  </si>
+  <si>
+    <t>Precipitação Semanal 2023</t>
+  </si>
+  <si>
+    <t>Média histórica de precipitação semanal</t>
   </si>
 </sst>
 </file>
@@ -579,48 +578,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -638,7 +637,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1061,7 +1060,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>datacalc!$U$1</c15:sqref>
@@ -1071,7 +1070,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Precipitação 2023</c:v>
+                        <c:v>Precipitação Semanal 2023</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1091,7 +1090,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>datacalc!$M$2:$M$54</c15:sqref>
@@ -1265,7 +1264,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>datacalc!$U$2:$U$54</c15:sqref>
@@ -1434,7 +1433,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000038-A787-495D-852A-529FA2C0AF3B}"/>
                   </c:ext>
@@ -2956,7 +2955,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>medtemp</c:v>
+                        <c:v>Média histórica de Temperatura máx.</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3345,7 +3344,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>temp2023</c:v>
+                        <c:v>Média de Temperatura máx. 2023</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3721,7 +3720,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>datacalc!$T$1</c15:sqref>
@@ -3731,7 +3730,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Precipitação média</c:v>
+                        <c:v>Média histórica de precipitação semanal</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3753,7 +3752,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>datacalc!$M$2:$M$54</c15:sqref>
@@ -3927,7 +3926,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>datacalc!$T$2:$T$54</c15:sqref>
@@ -4100,7 +4099,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000037-A787-495D-852A-529FA2C0AF3B}"/>
                   </c:ext>
@@ -4427,7 +4426,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4454,7 +4453,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Precipitação 2023</c:v>
+                  <c:v>Precipitação Semanal 2023</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -5228,7 +5227,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Precipitação média</c:v>
+                  <c:v>Média histórica de precipitação semanal</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -6004,7 +6003,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>datacalc!$P$1</c15:sqref>
@@ -6036,7 +6035,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>datacalc!$M$2:$M$54</c15:sqref>
@@ -6210,7 +6209,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>datacalc!$P$2:$P$54</c15:sqref>
@@ -6383,7 +6382,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-8009-4AA4-B0DE-B9EA78FFF8FA}"/>
                   </c:ext>
@@ -6396,7 +6395,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>datacalc!$Q$1</c15:sqref>
@@ -6427,7 +6426,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>datacalc!$M$2:$M$54</c15:sqref>
@@ -6601,7 +6600,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>datacalc!$Q$2:$Q$54</c15:sqref>
@@ -6774,7 +6773,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-8009-4AA4-B0DE-B9EA78FFF8FA}"/>
                   </c:ext>
@@ -6797,7 +6796,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>medtemp</c:v>
+                        <c:v>Média histórica de Temperatura máx.</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -7186,7 +7185,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>temp2023</c:v>
+                        <c:v>Média de Temperatura máx. 2023</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -7562,7 +7561,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>datacalc!$V$1</c15:sqref>
@@ -7591,7 +7590,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>datacalc!$M$2:$M$54</c15:sqref>
@@ -7765,7 +7764,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>datacalc!$V$2:$V$54</c15:sqref>
@@ -7935,7 +7934,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-8009-4AA4-B0DE-B9EA78FFF8FA}"/>
                   </c:ext>
@@ -8098,6 +8097,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8138,7 +8168,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8165,7 +8195,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>temp2023</c:v>
+                  <c:v>Média de Temperatura máx. 2023</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -8940,7 +8970,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Precipitação 2023</c:v>
+                        <c:v>Precipitação Semanal 2023</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9325,7 +9355,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>medtemp</c:v>
+                  <c:v>Média histórica de Temperatura máx.</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -10891,7 +10921,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Precipitação média</c:v>
+                        <c:v>Média histórica de precipitação semanal</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -11815,6 +11845,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -16824,7 +16885,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -17122,8 +17183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE314"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ10" sqref="AJ10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10:AH41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17141,7 +17202,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -17150,7 +17211,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -17159,31 +17220,31 @@
         <v>3</v>
       </c>
       <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>16</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -27051,18 +27112,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -27491,7 +27552,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B57">
         <v>9.1028933282085429</v>
